--- a/Documents/Deliverables/RM/RM_Requirements Matrix_Gr17.xlsx
+++ b/Documents/Deliverables/RM/RM_Requirements Matrix_Gr17.xlsx
@@ -8,14 +8,14 @@
     <sheet state="visible" name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Traceability Matrix'!$A$1:$K$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Traceability Matrix'!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="224">
   <si>
     <t>Instructions For Completing This Document</t>
   </si>
@@ -140,6 +140,15 @@
     <t>Completed</t>
   </si>
   <si>
+    <t>UREG</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Figma</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -149,16 +158,7 @@
     <t>Allow user registration ([Select] UserType: Researcher/Contributor, Name, Organisation Name, Professional Designation, Updated CV to be uploaded (pdf format), MailID, Phone Number, Account password); CV should be stored with user record;</t>
   </si>
   <si>
-    <t>REG</t>
-  </si>
-  <si>
-    <t>6.3.1</t>
-  </si>
-  <si>
-    <t>Figma</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Javascript</t>
   </si>
   <si>
     <t>REG-1.2</t>
@@ -191,13 +191,13 @@
     <t>Verify user type, user ID (the registered mail ID) &amp; password</t>
   </si>
   <si>
-    <t>LGN</t>
+    <t>ULGN</t>
   </si>
   <si>
     <t>6.3.2</t>
   </si>
   <si>
-    <t>T-LGN-1.1</t>
+    <t>T-ULGN-1.1</t>
   </si>
   <si>
     <t>LGN-1.2</t>
@@ -212,10 +212,22 @@
     <t>Display User Profile Information &amp; Status</t>
   </si>
   <si>
+    <t>PVPM</t>
+  </si>
+  <si>
+    <t>6.3.3</t>
+  </si>
+  <si>
     <t>PRF-1.1</t>
   </si>
   <si>
-    <t>Display user respective info. : 1. Full Name; 2. Current Organization; 3. Current Professional Designation; 4. Profile Picture (If any); 5. Uploaded CV Link; 6. User Ratings;</t>
+    <t>Display user respective info. : 1. Full Name; 2. Current Organization; 3. Current Professional Designation; 4. Profile Picture (If any); 5 User-Type; 6. User Ratings;</t>
+  </si>
+  <si>
+    <t>T-PVPM-1.1</t>
+  </si>
+  <si>
+    <t>Figma, Javascript</t>
   </si>
   <si>
     <t>PRF-1.2</t>
@@ -224,10 +236,13 @@
     <t>Display the project(s): 1. The User has completed contributing; 2. The User is currently contributing to; 3. Saved Projects</t>
   </si>
   <si>
+    <t>T-PVPM-1.2</t>
+  </si>
+  <si>
     <t>PMNU-1</t>
   </si>
   <si>
-    <t>Profile Menu</t>
+    <t>Platform Menu</t>
   </si>
   <si>
     <t>PMNU-1.1</t>
@@ -242,10 +257,19 @@
     <t>If the user is of UserType: Researcher then display the following menu options: 1. User Feed; 2. Post Project; 3. Account Settings; 4. LogOut</t>
   </si>
   <si>
+    <t>T-PVPM-2.2</t>
+  </si>
+  <si>
     <t>UF-1</t>
   </si>
   <si>
     <t>User Feed</t>
+  </si>
+  <si>
+    <t>UFA</t>
+  </si>
+  <si>
+    <t>6.3.4</t>
   </si>
   <si>
     <t>UF-1.1</t>
@@ -254,10 +278,16 @@
     <t>List projects: 1. Currently accepting applicants; 2. Completed Projects (Up for review by the audience);</t>
   </si>
   <si>
+    <t>T-UFA-1.1</t>
+  </si>
+  <si>
     <t>UF-1.2</t>
   </si>
   <si>
-    <t>Projects Currently accepting applicants should direct the applicants to the respective Project-Post page.</t>
+    <t>Projects ongoing should direct the users to the respective Project page.</t>
+  </si>
+  <si>
+    <t>T-UFA-1.2</t>
   </si>
   <si>
     <t>LVW-1</t>
@@ -289,10 +319,25 @@
     </r>
   </si>
   <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>6.3.5</t>
+  </si>
+  <si>
+    <t>T-PCM-1</t>
+  </si>
+  <si>
+    <t>Figma, Javascript, Solidity</t>
+  </si>
+  <si>
     <t>PSTPRJ-1.1</t>
   </si>
   <si>
     <t>Uploading Research IRB Approval Letter &amp; Researcher digital signature.</t>
+  </si>
+  <si>
+    <t>T-PCM-1.1</t>
   </si>
   <si>
     <t>OPVW-1</t>
@@ -339,6 +384,9 @@
     </r>
   </si>
   <si>
+    <t>T-PCM-2</t>
+  </si>
+  <si>
     <t>OPVW-1.1</t>
   </si>
   <si>
@@ -357,8 +405,11 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t>1. Display total no. of applicants [if still accepting applications]; 2.Display Applicant-Specific Info: 2.1 Applicant Name (Full Name); 2.2 Applicant Organisation Name; 2.3 Applicant Professional Designation; 2.4 No. of applicant contributions (in the project-domain); 2.5 Applicant CV Link; 2.6 Accept [Option]: {Stall, Yes, No}; 3. No. of candidates remaining to be selected</t>
+      <t>1. Display total no. of applicants [if still accepting applications]; 2.Display Applicant-Specific Info: 2.1 Applicant Name (Full Name); 2.2 Applicant Organisation Name; 2.3 Applicant Professional Designation; 2.4 No. of applicant contributions (in the project-domain); 2.5 Applicant CV Link; 2.6 Accept [Option]: {Yes, No}; 3. No. of candidates remaining to be selected</t>
     </r>
+  </si>
+  <si>
+    <t>T-PCM-2.1</t>
   </si>
   <si>
     <t>OPVW-1.2</t>
@@ -396,8 +447,11 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve"> working on the project ; 3. No. Of available spots [e.g. 0 in case required number of contributors are already present]</t>
+      <t xml:space="preserve"> working on the project;</t>
     </r>
+  </si>
+  <si>
+    <t>T-PCM-2.2</t>
   </si>
   <si>
     <t>OPVW-1.3</t>
@@ -420,6 +474,9 @@
       </rPr>
       <t xml:space="preserve"> 1. Display the list of selected candidates; 2. Researcher published document link; 3. Additional links [If any]; 4. Rate each contributor [e.g. on a scale of 1 to 10]; 4. The tasks done by each contributor; 5. The updated rating of each contributor;</t>
     </r>
+  </si>
+  <si>
+    <t>T-PCM-2.3</t>
   </si>
   <si>
     <t>CPVW-1</t>
@@ -466,6 +523,15 @@
     </r>
   </si>
   <si>
+    <t>CPO</t>
+  </si>
+  <si>
+    <t>6.3.6</t>
+  </si>
+  <si>
+    <t>T-CPO-1</t>
+  </si>
+  <si>
     <t>CPVW-1.1</t>
   </si>
   <si>
@@ -485,14 +551,17 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve"> 1. No. of applicants; 2. Application Status: {Pending, Accepted, Rejected}; 3. IRB Approval Letter [If Application Status: Accepted]</t>
+      <t xml:space="preserve"> 1. No. of applicants; 2. Application Status: {Accepted}; 3. IRB Approval Letter 4. Option to upload digital signature</t>
     </r>
+  </si>
+  <si>
+    <t>T-CPO-1.1</t>
   </si>
   <si>
     <t>CPVW-1.2</t>
   </si>
   <si>
-    <t>[Application Status: Accepted]: A Contribuotr after receiving the IRB Letter must sign the document and mention start &amp; end date of project as stated in the IRB to move forward with collaboration agreement.</t>
+    <t>[CCOLLAB Page assigned]: Provides a link to the CCOLLAB page on successful submission of dates and digital signature under [CPVW-1.1] .</t>
   </si>
   <si>
     <t>CPVW-1.3</t>
@@ -567,6 +636,9 @@
     </r>
   </si>
   <si>
+    <t>6.3.7</t>
+  </si>
+  <si>
     <t>PVW-1.2</t>
   </si>
   <si>
@@ -611,36 +683,6 @@
     </r>
   </si>
   <si>
-    <t>SPVW-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>User-Type &amp; ownership: Any]:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> Displaying Project Title, Project Domain Tags, Project ID and Project-Status: Agreement Violation [Stopped]; </t>
-    </r>
-  </si>
-  <si>
     <t>RCOLLAB-1</t>
   </si>
   <si>
@@ -665,10 +707,16 @@
     </r>
   </si>
   <si>
+    <t>PC</t>
+  </si>
+  <si>
     <t>RCOLLAB-1.1</t>
   </si>
   <si>
     <t>Collaboration Menu with 4 items: 1. Post Task; 2. Tasks &amp; Sub-Tasks; 3. Notifications; 4. Contributor Info. &amp; Agreement(s)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>RCOLLAB-1.2</t>
@@ -681,6 +729,9 @@
   </si>
   <si>
     <t xml:space="preserve">Researcher can post a sub-task under a task with the following details: 1. Sub-Task Name; 2. Due Date; 3. Priority: {High, Medium, Low}; 4. Attach Files; </t>
+  </si>
+  <si>
+    <t>Javascript, Solidity</t>
   </si>
   <si>
     <t>RCOLLAB-1.4</t>
@@ -775,7 +826,7 @@
     </r>
   </si>
   <si>
-    <t>RWARN-1</t>
+    <t>CWARN-1</t>
   </si>
   <si>
     <r>
@@ -786,7 +837,7 @@
         <sz val="8.0"/>
         <u/>
       </rPr>
-      <t>[User-Type: Contributor]</t>
+      <t>[User-Type: Researcher]</t>
     </r>
     <r>
       <rPr>
@@ -795,7 +846,26 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t>: Contributor(s) warns Researcher on agreement violation</t>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>Researcher warns Contributor on agreement violation</t>
     </r>
   </si>
   <si>
@@ -857,49 +927,6 @@
     <t>Download Attached Files to the task; Submit a file under the task or Remove an already submitted file only by the current-user, within the due date of the task.</t>
   </si>
   <si>
-    <t>CWARN-1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-        <u/>
-      </rPr>
-      <t>[User-Type: Researcher]</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Researcher warns Contributor on agreement violation</t>
-    </r>
-  </si>
-  <si>
     <t>CAS-1</t>
   </si>
   <si>
@@ -930,6 +957,9 @@
     <t>Chat conversations between the Researcher &amp; a Contributor for discussion purposes</t>
   </si>
   <si>
+    <t>RWARN-1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -938,7 +968,7 @@
         <sz val="8.0"/>
         <u/>
       </rPr>
-      <t>[User-Type: Researcher]</t>
+      <t>[User-Type: Contributor]</t>
     </r>
     <r>
       <rPr>
@@ -947,26 +977,7 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-        <u/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Researcher warns Contributor on agreement violation</t>
+      <t>: Contributor(s) warns Researcher on agreement violation</t>
     </r>
   </si>
   <si>
@@ -1016,6 +1027,9 @@
   </si>
   <si>
     <t>The researcher denies project exit request from the contributor.</t>
+  </si>
+  <si>
+    <t>SPVW-1</t>
   </si>
   <si>
     <t>Stopped Project View: On agreement violation by the researcher.</t>
@@ -1108,23 +1122,7 @@
     <t>NFPDAT-1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Platform Dependent Agreement Terms:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> Platform specific agreements to be included in the agreed upon RCA and FIPR between the researcher and each contributor of a project</t>
-    </r>
+    <t>Platform Dependent Agreement Terms</t>
   </si>
   <si>
     <t>Read Only</t>
@@ -1170,7 +1168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1248,11 +1246,21 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="7.0"/>
@@ -1298,7 +1306,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,12 +1335,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEAF1DD"/>
         <bgColor rgb="FFEAF1DD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1561,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1607,7 +1609,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="5" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="5" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1643,10 +1645,10 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1672,8 +1674,8 @@
     <xf borderId="13" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1682,9 +1684,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1692,9 +1694,6 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1704,9 +1703,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -1723,74 +1719,92 @@
     <xf borderId="4" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="6" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="18" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2059,11 +2073,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1727794441"/>
-        <c:axId val="1046826214"/>
+        <c:axId val="710974766"/>
+        <c:axId val="1540881498"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1727794441"/>
+        <c:axId val="710974766"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,10 +2129,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1046826214"/>
+        <c:crossAx val="1540881498"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1046826214"/>
+        <c:axId val="1540881498"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2193,7 +2207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1727794441"/>
+        <c:crossAx val="710974766"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -9072,7 +9086,7 @@
     <col customWidth="1" min="1" max="1" width="9.88"/>
     <col customWidth="1" min="2" max="2" width="57.38"/>
     <col customWidth="1" min="3" max="3" width="10.88"/>
-    <col customWidth="1" min="4" max="4" width="9.5"/>
+    <col customWidth="1" min="4" max="4" width="12.88"/>
     <col customWidth="1" min="5" max="5" width="13.25"/>
     <col customWidth="1" min="6" max="6" width="12.0"/>
     <col customWidth="1" min="7" max="7" width="16.75"/>
@@ -9144,12 +9158,18 @@
       <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="33"/>
@@ -9172,26 +9192,26 @@
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>42</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="I3" s="32"/>
       <c r="J3" s="33"/>
@@ -9224,11 +9244,9 @@
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="41"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="32"/>
       <c r="J4" s="33"/>
       <c r="K4" s="43"/>
@@ -9259,12 +9277,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="40"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="43"/>
@@ -9296,11 +9312,9 @@
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="32"/>
       <c r="J6" s="33"/>
       <c r="K6" s="43"/>
@@ -9324,20 +9338,24 @@
       <c r="A7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="48"/>
       <c r="J7" s="33"/>
-      <c r="K7" s="51"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="35"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -9364,24 +9382,24 @@
       <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="50"/>
+        <v>42</v>
+      </c>
+      <c r="I8" s="48"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="51"/>
+      <c r="K8" s="49"/>
       <c r="L8" s="35"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -9408,14 +9426,22 @@
       <c r="C9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
+      <c r="D9" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="48"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="51"/>
+      <c r="K9" s="49"/>
       <c r="L9" s="35"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -9433,23 +9459,31 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
+      <c r="D10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="53"/>
+      <c r="G10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="48"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="51"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="35"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -9467,23 +9501,33 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="23.25" customHeight="1">
-      <c r="A11" s="55" t="s">
-        <v>63</v>
+      <c r="A11" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
+      <c r="D11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="48"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="51"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="35"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -9501,23 +9545,33 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
-      <c r="A12" s="55" t="s">
-        <v>65</v>
+      <c r="A12" s="54" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
+      <c r="D12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="48"/>
       <c r="J12" s="33"/>
-      <c r="K12" s="51"/>
+      <c r="K12" s="49"/>
       <c r="L12" s="35"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -9535,23 +9589,31 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>68</v>
+      <c r="A13" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
+      <c r="D13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="48"/>
       <c r="J13" s="33"/>
-      <c r="K13" s="51"/>
+      <c r="K13" s="49"/>
       <c r="L13" s="35"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -9569,23 +9631,31 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="55" t="s">
-        <v>69</v>
+      <c r="A14" s="54" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="D14" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="48"/>
       <c r="J14" s="33"/>
-      <c r="K14" s="51"/>
+      <c r="K14" s="49"/>
       <c r="L14" s="35"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -9603,21 +9673,31 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="55" t="s">
-        <v>71</v>
+      <c r="A15" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="56"/>
+      <c r="D15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="55"/>
       <c r="J15" s="33"/>
       <c r="K15" s="43"/>
       <c r="L15" s="35"/>
@@ -9638,20 +9718,28 @@
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="56"/>
+      <c r="D16" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="55"/>
       <c r="J16" s="33"/>
       <c r="K16" s="43"/>
       <c r="L16" s="35"/>
@@ -9672,20 +9760,30 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="56"/>
+      <c r="D17" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="55"/>
       <c r="J17" s="33"/>
       <c r="K17" s="43"/>
       <c r="L17" s="35"/>
@@ -9704,22 +9802,32 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="21.75" customHeight="1">
+    <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="56"/>
+      <c r="D18" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="55"/>
       <c r="J18" s="33"/>
       <c r="K18" s="43"/>
       <c r="L18" s="35"/>
@@ -9740,20 +9848,20 @@
     </row>
     <row r="19" ht="33.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="56"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="33"/>
       <c r="K19" s="43"/>
       <c r="L19" s="35"/>
@@ -9773,21 +9881,31 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>82</v>
+      <c r="A20" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>92</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="56"/>
+      <c r="D20" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="55"/>
       <c r="J20" s="33"/>
       <c r="K20" s="43"/>
       <c r="L20" s="35"/>
@@ -9806,22 +9924,32 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>84</v>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="56"/>
+      <c r="D21" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="55"/>
       <c r="J21" s="33"/>
       <c r="K21" s="43"/>
       <c r="L21" s="35"/>
@@ -9841,21 +9969,31 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" ht="41.25" customHeight="1">
-      <c r="A22" s="53" t="s">
-        <v>85</v>
+      <c r="A22" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="56"/>
+      <c r="D22" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="55"/>
       <c r="J22" s="33"/>
       <c r="K22" s="43"/>
       <c r="L22" s="35"/>
@@ -9875,22 +10013,32 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" ht="50.25" customHeight="1">
-      <c r="A23" s="55" t="s">
-        <v>87</v>
+      <c r="A23" s="54" t="s">
+        <v>103</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="33"/>
+      <c r="D23" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="43"/>
       <c r="L23" s="35"/>
       <c r="M23" s="1"/>
@@ -9908,22 +10056,32 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="51.75" customHeight="1">
-      <c r="A24" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>90</v>
+    <row r="24" ht="45.0" customHeight="1">
+      <c r="A24" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>107</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="56"/>
+      <c r="D24" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="55"/>
       <c r="J24" s="33"/>
       <c r="K24" s="43"/>
       <c r="L24" s="35"/>
@@ -9943,21 +10101,31 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" ht="40.5" customHeight="1">
-      <c r="A25" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>92</v>
+      <c r="A25" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>110</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="56"/>
+      <c r="D25" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="55"/>
       <c r="J25" s="33"/>
       <c r="K25" s="43"/>
       <c r="L25" s="35"/>
@@ -9977,21 +10145,31 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="51.75" customHeight="1">
-      <c r="A26" s="53" t="s">
-        <v>93</v>
+      <c r="A26" s="51" t="s">
+        <v>112</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="56"/>
+      <c r="D26" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="55"/>
       <c r="J26" s="33"/>
       <c r="K26" s="43"/>
       <c r="L26" s="35"/>
@@ -10010,22 +10188,32 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="32.25" customHeight="1">
-      <c r="A27" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>96</v>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>118</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="56"/>
+      <c r="D27" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="55"/>
       <c r="J27" s="33"/>
       <c r="K27" s="43"/>
       <c r="L27" s="35"/>
@@ -10044,22 +10232,30 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="32.25" customHeight="1">
-      <c r="A28" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>98</v>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="56"/>
+      <c r="D28" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="55"/>
       <c r="J28" s="33"/>
       <c r="K28" s="43"/>
       <c r="L28" s="35"/>
@@ -10079,21 +10275,29 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" ht="21.75" customHeight="1">
-      <c r="A29" s="55" t="s">
-        <v>99</v>
+      <c r="A29" s="54" t="s">
+        <v>122</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="56"/>
+      <c r="D29" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="58"/>
+      <c r="G29" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="55"/>
       <c r="J29" s="33"/>
       <c r="K29" s="43"/>
       <c r="L29" s="35"/>
@@ -10113,21 +10317,29 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" ht="39.75" customHeight="1">
-      <c r="A30" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>102</v>
+      <c r="A30" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="56"/>
+      <c r="D30" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="58"/>
+      <c r="G30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="55"/>
       <c r="J30" s="33"/>
       <c r="K30" s="43"/>
       <c r="L30" s="35"/>
@@ -10147,21 +10359,25 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" ht="30.0" customHeight="1">
-      <c r="A31" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>104</v>
+      <c r="A31" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="56"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="55"/>
       <c r="J31" s="33"/>
       <c r="K31" s="43"/>
       <c r="L31" s="35"/>
@@ -10181,21 +10397,29 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" ht="36.0" customHeight="1">
-      <c r="A32" s="55" t="s">
-        <v>105</v>
+      <c r="A32" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="56"/>
+      <c r="D32" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="55"/>
       <c r="J32" s="33"/>
       <c r="K32" s="43"/>
       <c r="L32" s="35"/>
@@ -10215,21 +10439,21 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" ht="23.25" customHeight="1">
-      <c r="A33" s="55" t="s">
-        <v>107</v>
+      <c r="A33" s="54" t="s">
+        <v>131</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="41"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="56"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="33"/>
       <c r="K33" s="43"/>
       <c r="L33" s="35"/>
@@ -10249,21 +10473,21 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" ht="40.5" customHeight="1">
-      <c r="A34" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>110</v>
+      <c r="A34" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="56"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="55"/>
       <c r="J34" s="33"/>
       <c r="K34" s="43"/>
       <c r="L34" s="35"/>
@@ -10282,22 +10506,30 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="23.25" customHeight="1">
-      <c r="A35" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>112</v>
+    <row r="35" ht="32.25" customHeight="1">
+      <c r="A35" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>136</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="56"/>
+      <c r="D35" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="55"/>
       <c r="J35" s="33"/>
       <c r="K35" s="43"/>
       <c r="L35" s="35"/>
@@ -10316,22 +10548,28 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="32.25" customHeight="1">
-      <c r="A36" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>114</v>
+    <row r="36" ht="21.75" customHeight="1">
+      <c r="A36" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="56"/>
+      <c r="D36" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" s="55"/>
       <c r="J36" s="33"/>
       <c r="K36" s="43"/>
       <c r="L36" s="35"/>
@@ -10351,21 +10589,29 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" ht="21.75" customHeight="1">
-      <c r="A37" s="55" t="s">
-        <v>115</v>
+      <c r="A37" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="56"/>
+      <c r="D37" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="55"/>
       <c r="J37" s="33"/>
       <c r="K37" s="43"/>
       <c r="L37" s="35"/>
@@ -10385,21 +10631,29 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" ht="21.75" customHeight="1">
-      <c r="A38" s="55" t="s">
-        <v>117</v>
+      <c r="A38" s="67" t="s">
+        <v>143</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="56"/>
+      <c r="D38" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="55"/>
       <c r="J38" s="33"/>
       <c r="K38" s="43"/>
       <c r="L38" s="35"/>
@@ -10419,21 +10673,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" ht="21.75" customHeight="1">
-      <c r="A39" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>120</v>
+      <c r="A39" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>147</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="56"/>
+      <c r="D39" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="55"/>
       <c r="J39" s="33"/>
       <c r="K39" s="43"/>
       <c r="L39" s="35"/>
@@ -10453,21 +10713,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" ht="21.75" customHeight="1">
-      <c r="A40" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>122</v>
+      <c r="A40" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="56"/>
+      <c r="D40" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="55"/>
       <c r="J40" s="33"/>
       <c r="K40" s="43"/>
       <c r="L40" s="35"/>
@@ -10486,22 +10752,30 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="21.75" customHeight="1">
-      <c r="A41" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>124</v>
+    <row r="41" ht="32.25" customHeight="1">
+      <c r="A41" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="56"/>
+      <c r="D41" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="55"/>
       <c r="J41" s="33"/>
       <c r="K41" s="43"/>
       <c r="L41" s="35"/>
@@ -10520,22 +10794,28 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="32.25" customHeight="1">
-      <c r="A42" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>126</v>
+    <row r="42" ht="41.25" customHeight="1">
+      <c r="A42" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="56"/>
+      <c r="D42" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" s="55"/>
       <c r="J42" s="33"/>
       <c r="K42" s="43"/>
       <c r="L42" s="35"/>
@@ -10554,22 +10834,28 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="41.25" customHeight="1">
-      <c r="A43" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>128</v>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>155</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="56"/>
+      <c r="D43" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I43" s="55"/>
       <c r="J43" s="33"/>
       <c r="K43" s="43"/>
       <c r="L43" s="35"/>
@@ -10588,22 +10874,28 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>130</v>
+    <row r="44" ht="30.75" customHeight="1">
+      <c r="A44" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>157</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="56"/>
+      <c r="D44" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="55"/>
       <c r="J44" s="33"/>
       <c r="K44" s="43"/>
       <c r="L44" s="35"/>
@@ -10622,22 +10914,28 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="30.75" customHeight="1">
-      <c r="A45" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>132</v>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>159</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="56"/>
+      <c r="D45" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="55"/>
       <c r="J45" s="33"/>
       <c r="K45" s="43"/>
       <c r="L45" s="35"/>
@@ -10656,22 +10954,28 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="11.25" customHeight="1">
-      <c r="A46" s="55" t="s">
-        <v>133</v>
+    <row r="46" ht="22.5" customHeight="1">
+      <c r="A46" s="54" t="s">
+        <v>160</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="56"/>
+      <c r="D46" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="55"/>
       <c r="J46" s="33"/>
       <c r="K46" s="43"/>
       <c r="L46" s="35"/>
@@ -10690,22 +10994,30 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="11.25" customHeight="1">
-      <c r="A47" s="55" t="s">
-        <v>135</v>
+    <row r="47" ht="21.75" customHeight="1">
+      <c r="A47" s="54" t="s">
+        <v>162</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="56"/>
+      <c r="D47" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="55"/>
       <c r="J47" s="33"/>
       <c r="K47" s="43"/>
       <c r="L47" s="35"/>
@@ -10724,22 +11036,28 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="21.75" customHeight="1">
-      <c r="A48" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>138</v>
+    <row r="48" ht="33.75" customHeight="1">
+      <c r="A48" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="56"/>
+      <c r="D48" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="55"/>
       <c r="J48" s="33"/>
       <c r="K48" s="43"/>
       <c r="L48" s="35"/>
@@ -10758,22 +11076,28 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>140</v>
+    <row r="49" ht="22.5" customHeight="1">
+      <c r="A49" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>167</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="56"/>
+      <c r="D49" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="55"/>
       <c r="J49" s="33"/>
       <c r="K49" s="43"/>
       <c r="L49" s="35"/>
@@ -10792,22 +11116,28 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="39.0" customHeight="1">
-      <c r="A50" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>142</v>
+    <row r="50" ht="24.0" customHeight="1">
+      <c r="A50" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="56"/>
+      <c r="D50" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="55"/>
       <c r="J50" s="33"/>
       <c r="K50" s="43"/>
       <c r="L50" s="35"/>
@@ -10826,22 +11156,28 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.0" customHeight="1">
-      <c r="A51" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>144</v>
+    <row r="51" ht="23.25" customHeight="1">
+      <c r="A51" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>171</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="56"/>
+      <c r="D51" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="55"/>
       <c r="J51" s="33"/>
       <c r="K51" s="43"/>
       <c r="L51" s="35"/>
@@ -10860,22 +11196,28 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>145</v>
+    <row r="52" ht="21.75" customHeight="1">
+      <c r="A52" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="56"/>
+      <c r="D52" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="55"/>
       <c r="J52" s="33"/>
       <c r="K52" s="43"/>
       <c r="L52" s="35"/>
@@ -10894,22 +11236,28 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>147</v>
+    <row r="53" ht="20.25" customHeight="1">
+      <c r="A53" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>175</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="56"/>
+      <c r="D53" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="55"/>
       <c r="J53" s="33"/>
       <c r="K53" s="43"/>
       <c r="L53" s="35"/>
@@ -10928,22 +11276,28 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>149</v>
+    <row r="54" ht="23.25" customHeight="1">
+      <c r="A54" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="56"/>
+      <c r="D54" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="55"/>
       <c r="J54" s="33"/>
       <c r="K54" s="43"/>
       <c r="L54" s="35"/>
@@ -10962,22 +11316,28 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="20.25" customHeight="1">
-      <c r="A55" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>151</v>
+    <row r="55" ht="21.0" customHeight="1">
+      <c r="A55" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="56"/>
+      <c r="D55" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="55"/>
       <c r="J55" s="33"/>
       <c r="K55" s="43"/>
       <c r="L55" s="35"/>
@@ -10996,22 +11356,22 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>153</v>
+    <row r="56" ht="17.25" customHeight="1">
+      <c r="A56" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>181</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="56"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="55"/>
       <c r="J56" s="33"/>
       <c r="K56" s="43"/>
       <c r="L56" s="35"/>
@@ -11030,22 +11390,26 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>155</v>
+    <row r="57" ht="30.75" customHeight="1">
+      <c r="A57" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>183</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="56"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="55"/>
       <c r="J57" s="33"/>
       <c r="K57" s="43"/>
       <c r="L57" s="35"/>
@@ -11064,22 +11428,22 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>156</v>
+    <row r="58" ht="12.0" customHeight="1">
+      <c r="A58" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>185</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="56"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="55"/>
       <c r="J58" s="33"/>
       <c r="K58" s="43"/>
       <c r="L58" s="35"/>
@@ -11098,22 +11462,22 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="30.75" customHeight="1">
-      <c r="A59" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>158</v>
+    <row r="59" ht="11.25" customHeight="1">
+      <c r="A59" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="56"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="55"/>
       <c r="J59" s="33"/>
       <c r="K59" s="43"/>
       <c r="L59" s="35"/>
@@ -11132,22 +11496,22 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="12.0" customHeight="1">
-      <c r="A60" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>160</v>
+    <row r="60" ht="11.25" customHeight="1">
+      <c r="A60" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="44" t="s">
+        <v>189</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="56"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="55"/>
       <c r="J60" s="33"/>
       <c r="K60" s="43"/>
       <c r="L60" s="35"/>
@@ -11167,21 +11531,25 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" ht="11.25" customHeight="1">
-      <c r="A61" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>162</v>
+      <c r="A61" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>191</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D61" s="40"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="56"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I61" s="55"/>
       <c r="J61" s="33"/>
       <c r="K61" s="43"/>
       <c r="L61" s="35"/>
@@ -11201,21 +11569,21 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" ht="11.25" customHeight="1">
-      <c r="A62" s="55" t="s">
-        <v>163</v>
+      <c r="A62" s="54" t="s">
+        <v>192</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="56"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="55"/>
       <c r="J62" s="33"/>
       <c r="K62" s="43"/>
       <c r="L62" s="35"/>
@@ -11235,21 +11603,21 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" ht="11.25" customHeight="1">
-      <c r="A63" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>166</v>
+      <c r="A63" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>195</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="41"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="56"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="55"/>
       <c r="J63" s="33"/>
       <c r="K63" s="43"/>
       <c r="L63" s="35"/>
@@ -11269,21 +11637,21 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" ht="11.25" customHeight="1">
-      <c r="A64" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>168</v>
+      <c r="A64" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>197</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="56"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="55"/>
       <c r="J64" s="33"/>
       <c r="K64" s="43"/>
       <c r="L64" s="35"/>
@@ -11303,21 +11671,21 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" ht="11.25" customHeight="1">
-      <c r="A65" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>170</v>
+      <c r="A65" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="41"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="56"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="55"/>
       <c r="J65" s="33"/>
       <c r="K65" s="43"/>
       <c r="L65" s="35"/>
@@ -11336,22 +11704,22 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="11.25" customHeight="1">
-      <c r="A66" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>172</v>
+    <row r="66" ht="12.0" customHeight="1">
+      <c r="A66" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>201</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="56"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="55"/>
       <c r="J66" s="33"/>
       <c r="K66" s="43"/>
       <c r="L66" s="35"/>
@@ -11370,22 +11738,22 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="11.25" customHeight="1">
-      <c r="A67" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>174</v>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="A67" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>203</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="41"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="56"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="55"/>
       <c r="J67" s="33"/>
       <c r="K67" s="43"/>
       <c r="L67" s="35"/>
@@ -11405,21 +11773,21 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" ht="12.0" customHeight="1">
-      <c r="A68" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B68" s="54" t="s">
-        <v>176</v>
+      <c r="A68" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="56"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="55"/>
       <c r="J68" s="33"/>
       <c r="K68" s="43"/>
       <c r="L68" s="35"/>
@@ -11438,22 +11806,22 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="54" t="s">
-        <v>178</v>
+    <row r="69" ht="11.25" customHeight="1">
+      <c r="A69" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="41"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="56"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="55"/>
       <c r="J69" s="33"/>
       <c r="K69" s="43"/>
       <c r="L69" s="35"/>
@@ -11472,22 +11840,22 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="12.0" customHeight="1">
-      <c r="A70" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="54" t="s">
-        <v>180</v>
+    <row r="70" ht="10.5" customHeight="1">
+      <c r="A70" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>209</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="41"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="56"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="55"/>
       <c r="J70" s="33"/>
       <c r="K70" s="43"/>
       <c r="L70" s="35"/>
@@ -11506,22 +11874,22 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="11.25" customHeight="1">
-      <c r="A71" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>182</v>
+    <row r="71" ht="20.25" customHeight="1">
+      <c r="A71" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>211</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="41"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="56"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="55"/>
       <c r="J71" s="33"/>
       <c r="K71" s="43"/>
       <c r="L71" s="35"/>
@@ -11540,22 +11908,16 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="10.5" customHeight="1">
-      <c r="A72" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="B72" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>38</v>
-      </c>
+    <row r="72" ht="11.25" customHeight="1">
+      <c r="A72" s="70"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="40"/>
       <c r="E72" s="41"/>
-      <c r="F72" s="29"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="56"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="55"/>
       <c r="J72" s="33"/>
       <c r="K72" s="43"/>
       <c r="L72" s="35"/>
@@ -11574,22 +11936,16 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="20.25" customHeight="1">
-      <c r="A73" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>38</v>
-      </c>
+    <row r="73" ht="11.25" customHeight="1">
+      <c r="A73" s="70"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="40"/>
       <c r="E73" s="41"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="56"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="55"/>
       <c r="J73" s="33"/>
       <c r="K73" s="43"/>
       <c r="L73" s="35"/>
@@ -11609,15 +11965,15 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" ht="11.25" customHeight="1">
-      <c r="A74" s="69"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="51"/>
+      <c r="A74" s="70"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="40"/>
       <c r="E74" s="41"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="56"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="55"/>
       <c r="J74" s="33"/>
       <c r="K74" s="43"/>
       <c r="L74" s="35"/>
@@ -11637,15 +11993,15 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" ht="11.25" customHeight="1">
-      <c r="A75" s="69"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="70"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="40"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="29"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="56"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="55"/>
       <c r="J75" s="33"/>
       <c r="K75" s="43"/>
       <c r="L75" s="35"/>
@@ -11665,15 +12021,15 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" ht="11.25" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="51"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="40"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="56"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="55"/>
       <c r="J76" s="33"/>
       <c r="K76" s="43"/>
       <c r="L76" s="35"/>
@@ -11693,15 +12049,15 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" ht="11.25" customHeight="1">
-      <c r="A77" s="69"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="51"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="40"/>
       <c r="E77" s="41"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="56"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="55"/>
       <c r="J77" s="33"/>
       <c r="K77" s="43"/>
       <c r="L77" s="35"/>
@@ -11721,15 +12077,15 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" ht="11.25" customHeight="1">
-      <c r="A78" s="69"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="40"/>
       <c r="E78" s="41"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="56"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="33"/>
       <c r="K78" s="43"/>
       <c r="L78" s="35"/>
@@ -11749,15 +12105,15 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" ht="11.25" customHeight="1">
-      <c r="A79" s="69"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="70"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="40"/>
       <c r="E79" s="41"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="56"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="55"/>
       <c r="J79" s="33"/>
       <c r="K79" s="43"/>
       <c r="L79" s="35"/>
@@ -11777,15 +12133,15 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" ht="11.25" customHeight="1">
-      <c r="A80" s="69"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="40"/>
       <c r="E80" s="41"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="56"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="33"/>
       <c r="K80" s="43"/>
       <c r="L80" s="35"/>
@@ -11805,15 +12161,15 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" ht="11.25" customHeight="1">
-      <c r="A81" s="69"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="51"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="40"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="56"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="55"/>
       <c r="J81" s="33"/>
       <c r="K81" s="43"/>
       <c r="L81" s="35"/>
@@ -11833,15 +12189,15 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" ht="11.25" customHeight="1">
-      <c r="A82" s="69"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="51"/>
+      <c r="A82" s="70"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="40"/>
       <c r="E82" s="41"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="56"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="33"/>
       <c r="K82" s="43"/>
       <c r="L82" s="35"/>
@@ -11861,15 +12217,15 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" ht="11.25" customHeight="1">
-      <c r="A83" s="69"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="70"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="40"/>
       <c r="E83" s="41"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="49"/>
-      <c r="I83" s="56"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="55"/>
       <c r="J83" s="33"/>
       <c r="K83" s="43"/>
       <c r="L83" s="35"/>
@@ -11889,15 +12245,15 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" ht="11.25" customHeight="1">
-      <c r="A84" s="69"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="40"/>
       <c r="E84" s="41"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="56"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="55"/>
       <c r="J84" s="33"/>
       <c r="K84" s="43"/>
       <c r="L84" s="35"/>
@@ -11917,15 +12273,15 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" ht="11.25" customHeight="1">
-      <c r="A85" s="69"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="51"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="49"/>
       <c r="D85" s="40"/>
       <c r="E85" s="41"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="49"/>
-      <c r="I85" s="56"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="55"/>
       <c r="J85" s="33"/>
       <c r="K85" s="43"/>
       <c r="L85" s="35"/>
@@ -11945,15 +12301,15 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" ht="11.25" customHeight="1">
-      <c r="A86" s="69"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="51"/>
+      <c r="A86" s="70"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="40"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="49"/>
-      <c r="I86" s="56"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="55"/>
       <c r="J86" s="33"/>
       <c r="K86" s="43"/>
       <c r="L86" s="35"/>
@@ -11973,15 +12329,15 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" ht="11.25" customHeight="1">
-      <c r="A87" s="69"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="51"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="71"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="40"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="56"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="55"/>
       <c r="J87" s="33"/>
       <c r="K87" s="43"/>
       <c r="L87" s="35"/>
@@ -12001,15 +12357,15 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" ht="11.25" customHeight="1">
-      <c r="A88" s="69"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="51"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="40"/>
       <c r="E88" s="41"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="56"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="55"/>
       <c r="J88" s="33"/>
       <c r="K88" s="43"/>
       <c r="L88" s="35"/>
@@ -12029,15 +12385,15 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" ht="11.25" customHeight="1">
-      <c r="A89" s="69"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="51"/>
+      <c r="A89" s="70"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="40"/>
       <c r="E89" s="41"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="49"/>
-      <c r="I89" s="56"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="55"/>
       <c r="J89" s="33"/>
       <c r="K89" s="43"/>
       <c r="L89" s="35"/>
@@ -12057,15 +12413,15 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" ht="11.25" customHeight="1">
-      <c r="A90" s="69"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="40"/>
       <c r="E90" s="41"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="49"/>
-      <c r="I90" s="56"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="55"/>
       <c r="J90" s="33"/>
       <c r="K90" s="43"/>
       <c r="L90" s="35"/>
@@ -12085,15 +12441,15 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" ht="11.25" customHeight="1">
-      <c r="A91" s="69"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="51"/>
+      <c r="A91" s="70"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="40"/>
       <c r="E91" s="41"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="56"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="33"/>
       <c r="K91" s="43"/>
       <c r="L91" s="35"/>
@@ -12113,15 +12469,15 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" ht="11.25" customHeight="1">
-      <c r="A92" s="69"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="51"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="40"/>
       <c r="E92" s="41"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="56"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="55"/>
       <c r="J92" s="33"/>
       <c r="K92" s="43"/>
       <c r="L92" s="35"/>
@@ -12141,15 +12497,15 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" ht="11.25" customHeight="1">
-      <c r="A93" s="69"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="51"/>
+      <c r="A93" s="70"/>
+      <c r="B93" s="71"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="40"/>
       <c r="E93" s="41"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="56"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="33"/>
       <c r="K93" s="43"/>
       <c r="L93" s="35"/>
@@ -12169,15 +12525,15 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="11.25" customHeight="1">
-      <c r="A94" s="69"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="51"/>
+      <c r="A94" s="70"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="40"/>
       <c r="E94" s="41"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="56"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="55"/>
       <c r="J94" s="33"/>
       <c r="K94" s="43"/>
       <c r="L94" s="35"/>
@@ -12197,15 +12553,15 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" ht="11.25" customHeight="1">
-      <c r="A95" s="69"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="51"/>
+      <c r="A95" s="70"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="40"/>
       <c r="E95" s="41"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="56"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="33"/>
       <c r="K95" s="43"/>
       <c r="L95" s="35"/>
@@ -12225,15 +12581,15 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" ht="11.25" customHeight="1">
-      <c r="A96" s="69"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="70"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="40"/>
       <c r="E96" s="41"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="33"/>
       <c r="K96" s="43"/>
       <c r="L96" s="35"/>
@@ -12253,15 +12609,15 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" ht="11.25" customHeight="1">
-      <c r="A97" s="69"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="51"/>
+      <c r="A97" s="70"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="40"/>
       <c r="E97" s="41"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="49"/>
-      <c r="I97" s="56"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="55"/>
       <c r="J97" s="33"/>
       <c r="K97" s="43"/>
       <c r="L97" s="35"/>
@@ -12281,15 +12637,15 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" ht="11.25" customHeight="1">
-      <c r="A98" s="69"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="51"/>
+      <c r="A98" s="70"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="49"/>
       <c r="D98" s="40"/>
       <c r="E98" s="41"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="49"/>
-      <c r="I98" s="56"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="33"/>
       <c r="K98" s="43"/>
       <c r="L98" s="35"/>
@@ -12309,15 +12665,15 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" ht="11.25" customHeight="1">
-      <c r="A99" s="69"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="71"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="40"/>
       <c r="E99" s="41"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="56"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="55"/>
       <c r="J99" s="33"/>
       <c r="K99" s="43"/>
       <c r="L99" s="35"/>
@@ -12337,15 +12693,15 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" ht="11.25" customHeight="1">
-      <c r="A100" s="69"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="70"/>
+      <c r="B100" s="71"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="40"/>
       <c r="E100" s="41"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="49"/>
-      <c r="I100" s="56"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="33"/>
       <c r="K100" s="43"/>
       <c r="L100" s="35"/>
@@ -12365,15 +12721,15 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" ht="11.25" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="51"/>
+      <c r="A101" s="70"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="40"/>
       <c r="E101" s="41"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="56"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="55"/>
       <c r="J101" s="33"/>
       <c r="K101" s="43"/>
       <c r="L101" s="35"/>
@@ -12393,15 +12749,15 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" ht="11.25" customHeight="1">
-      <c r="A102" s="69"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="70"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="49"/>
       <c r="D102" s="40"/>
       <c r="E102" s="41"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="56"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="33"/>
       <c r="K102" s="43"/>
       <c r="L102" s="35"/>
@@ -12421,15 +12777,15 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" ht="11.25" customHeight="1">
-      <c r="A103" s="69"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="70"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="40"/>
       <c r="E103" s="41"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="56"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="55"/>
       <c r="J103" s="33"/>
       <c r="K103" s="43"/>
       <c r="L103" s="35"/>
@@ -12449,15 +12805,15 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" ht="11.25" customHeight="1">
-      <c r="A104" s="69"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="70"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="40"/>
       <c r="E104" s="41"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="49"/>
-      <c r="I104" s="56"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="55"/>
       <c r="J104" s="33"/>
       <c r="K104" s="43"/>
       <c r="L104" s="35"/>
@@ -12477,15 +12833,15 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" ht="11.25" customHeight="1">
-      <c r="A105" s="69"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="70"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="40"/>
       <c r="E105" s="41"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="49"/>
-      <c r="I105" s="56"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="55"/>
       <c r="J105" s="33"/>
       <c r="K105" s="43"/>
       <c r="L105" s="35"/>
@@ -12505,15 +12861,15 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" ht="11.25" customHeight="1">
-      <c r="A106" s="69"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="51"/>
+      <c r="A106" s="70"/>
+      <c r="B106" s="71"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="40"/>
       <c r="E106" s="41"/>
-      <c r="F106" s="29"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="49"/>
-      <c r="I106" s="56"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="55"/>
       <c r="J106" s="33"/>
       <c r="K106" s="43"/>
       <c r="L106" s="35"/>
@@ -12533,15 +12889,15 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" ht="11.25" customHeight="1">
-      <c r="A107" s="69"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="70"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="40"/>
       <c r="E107" s="41"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="49"/>
-      <c r="I107" s="56"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="55"/>
       <c r="J107" s="33"/>
       <c r="K107" s="43"/>
       <c r="L107" s="35"/>
@@ -12561,15 +12917,15 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" ht="11.25" customHeight="1">
-      <c r="A108" s="69"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="70"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="40"/>
       <c r="E108" s="41"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="49"/>
-      <c r="I108" s="56"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="55"/>
       <c r="J108" s="33"/>
       <c r="K108" s="43"/>
       <c r="L108" s="35"/>
@@ -12589,15 +12945,15 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" ht="11.25" customHeight="1">
-      <c r="A109" s="69"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="70"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="40"/>
       <c r="E109" s="41"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="49"/>
-      <c r="I109" s="56"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="55"/>
       <c r="J109" s="33"/>
       <c r="K109" s="43"/>
       <c r="L109" s="35"/>
@@ -12617,15 +12973,15 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" ht="11.25" customHeight="1">
-      <c r="A110" s="69"/>
-      <c r="B110" s="41"/>
-      <c r="C110" s="51"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="40"/>
       <c r="E110" s="41"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="56"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="55"/>
       <c r="J110" s="33"/>
       <c r="K110" s="43"/>
       <c r="L110" s="35"/>
@@ -12645,15 +13001,15 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" ht="11.25" customHeight="1">
-      <c r="A111" s="69"/>
-      <c r="B111" s="41"/>
-      <c r="C111" s="51"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="71"/>
+      <c r="C111" s="49"/>
       <c r="D111" s="40"/>
       <c r="E111" s="41"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="56"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="55"/>
       <c r="J111" s="33"/>
       <c r="K111" s="43"/>
       <c r="L111" s="35"/>
@@ -12673,15 +13029,15 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" ht="11.25" customHeight="1">
-      <c r="A112" s="69"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="51"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="71"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="40"/>
       <c r="E112" s="41"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="56"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="55"/>
       <c r="J112" s="33"/>
       <c r="K112" s="43"/>
       <c r="L112" s="35"/>
@@ -12701,15 +13057,15 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" ht="11.25" customHeight="1">
-      <c r="A113" s="69"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="51"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="40"/>
       <c r="E113" s="41"/>
-      <c r="F113" s="29"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="56"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="55"/>
       <c r="J113" s="33"/>
       <c r="K113" s="43"/>
       <c r="L113" s="35"/>
@@ -12729,15 +13085,15 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" ht="11.25" customHeight="1">
-      <c r="A114" s="69"/>
-      <c r="B114" s="41"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="49"/>
       <c r="D114" s="40"/>
       <c r="E114" s="41"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="56"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="55"/>
       <c r="J114" s="33"/>
       <c r="K114" s="43"/>
       <c r="L114" s="35"/>
@@ -12757,15 +13113,15 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" ht="11.25" customHeight="1">
-      <c r="A115" s="69"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="51"/>
+      <c r="A115" s="70"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="40"/>
       <c r="E115" s="41"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="49"/>
-      <c r="I115" s="56"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="55"/>
       <c r="J115" s="33"/>
       <c r="K115" s="43"/>
       <c r="L115" s="35"/>
@@ -12785,15 +13141,15 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" ht="11.25" customHeight="1">
-      <c r="A116" s="69"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="51"/>
+      <c r="A116" s="70"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="40"/>
       <c r="E116" s="41"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="56"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="55"/>
       <c r="J116" s="33"/>
       <c r="K116" s="43"/>
       <c r="L116" s="35"/>
@@ -12813,15 +13169,15 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" ht="11.25" customHeight="1">
-      <c r="A117" s="69"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="51"/>
+      <c r="A117" s="70"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="40"/>
       <c r="E117" s="41"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="56"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="55"/>
       <c r="J117" s="33"/>
       <c r="K117" s="43"/>
       <c r="L117" s="35"/>
@@ -12841,15 +13197,15 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" ht="11.25" customHeight="1">
-      <c r="A118" s="69"/>
-      <c r="B118" s="41"/>
-      <c r="C118" s="51"/>
+      <c r="A118" s="70"/>
+      <c r="B118" s="71"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="40"/>
       <c r="E118" s="41"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="56"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="55"/>
       <c r="J118" s="33"/>
       <c r="K118" s="43"/>
       <c r="L118" s="35"/>
@@ -12869,15 +13225,15 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" ht="11.25" customHeight="1">
-      <c r="A119" s="69"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="51"/>
+      <c r="A119" s="70"/>
+      <c r="B119" s="71"/>
+      <c r="C119" s="49"/>
       <c r="D119" s="40"/>
       <c r="E119" s="41"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="49"/>
-      <c r="I119" s="56"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="55"/>
       <c r="J119" s="33"/>
       <c r="K119" s="43"/>
       <c r="L119" s="35"/>
@@ -12896,19 +13252,19 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="11.25" customHeight="1">
-      <c r="A120" s="69"/>
-      <c r="B120" s="41"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="29"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="49"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="33"/>
-      <c r="K120" s="43"/>
-      <c r="L120" s="35"/>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
@@ -12924,19 +13280,19 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="11.25" customHeight="1">
-      <c r="A121" s="69"/>
-      <c r="B121" s="41"/>
-      <c r="C121" s="51"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="49"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="43"/>
-      <c r="L121" s="35"/>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="72"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
@@ -12957,7 +13313,7 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="E122" s="72"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -12985,7 +13341,7 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
+      <c r="E123" s="72"/>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -13013,7 +13369,7 @@
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="E124" s="72"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -13041,7 +13397,7 @@
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="E125" s="72"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -13069,7 +13425,7 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+      <c r="E126" s="72"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -13097,7 +13453,7 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
+      <c r="E127" s="72"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -13125,7 +13481,7 @@
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="72"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -13153,7 +13509,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+      <c r="E129" s="72"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -13181,7 +13537,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
+      <c r="E130" s="72"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -13209,7 +13565,7 @@
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="72"/>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -13237,7 +13593,7 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
+      <c r="E132" s="72"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -13265,7 +13621,7 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
+      <c r="E133" s="72"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -13293,7 +13649,7 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
+      <c r="E134" s="72"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -13321,7 +13677,7 @@
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="E135" s="72"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -13349,7 +13705,7 @@
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="72"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -13377,7 +13733,7 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
+      <c r="E137" s="72"/>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -13405,7 +13761,7 @@
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="72"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -13433,7 +13789,7 @@
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="72"/>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -13461,7 +13817,7 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
+      <c r="E140" s="72"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -13489,7 +13845,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
+      <c r="E141" s="72"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -13517,7 +13873,7 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
+      <c r="E142" s="72"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -13545,7 +13901,7 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
+      <c r="E143" s="72"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -13573,7 +13929,7 @@
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
+      <c r="E144" s="72"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -13601,7 +13957,7 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
+      <c r="E145" s="72"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -13629,7 +13985,7 @@
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
+      <c r="E146" s="72"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -13657,7 +14013,7 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="E147" s="72"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -13685,7 +14041,7 @@
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
+      <c r="E148" s="72"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -13713,7 +14069,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="E149" s="72"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -13741,7 +14097,7 @@
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
+      <c r="E150" s="72"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -13769,7 +14125,7 @@
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="E151" s="72"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -13797,7 +14153,7 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+      <c r="E152" s="72"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -13825,7 +14181,7 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="E153" s="72"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -13853,7 +14209,7 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="72"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -13881,7 +14237,7 @@
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="E155" s="72"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -13909,7 +14265,7 @@
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="E156" s="72"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -13937,7 +14293,7 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="E157" s="72"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -13965,7 +14321,7 @@
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="E158" s="72"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -13993,7 +14349,7 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="E159" s="72"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -14021,7 +14377,7 @@
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+      <c r="E160" s="72"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -14049,7 +14405,7 @@
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="E161" s="72"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -14077,7 +14433,7 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+      <c r="E162" s="72"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -14105,7 +14461,7 @@
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+      <c r="E163" s="72"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -14133,7 +14489,7 @@
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
+      <c r="E164" s="72"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -14161,7 +14517,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
+      <c r="E165" s="72"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -14189,7 +14545,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
+      <c r="E166" s="72"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -14217,7 +14573,7 @@
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+      <c r="E167" s="72"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -14245,7 +14601,7 @@
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+      <c r="E168" s="72"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -14273,7 +14629,7 @@
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
+      <c r="E169" s="72"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -14301,7 +14657,7 @@
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
+      <c r="E170" s="72"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -14329,7 +14685,7 @@
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
+      <c r="E171" s="72"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -14357,7 +14713,7 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
+      <c r="E172" s="72"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -14385,7 +14741,7 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
+      <c r="E173" s="72"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -14413,7 +14769,7 @@
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
+      <c r="E174" s="72"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -14441,7 +14797,7 @@
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
+      <c r="E175" s="72"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -14469,7 +14825,7 @@
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
+      <c r="E176" s="72"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -14497,7 +14853,7 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
+      <c r="E177" s="72"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -14525,7 +14881,7 @@
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
+      <c r="E178" s="72"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -14553,7 +14909,7 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
+      <c r="E179" s="72"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -14581,7 +14937,7 @@
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
+      <c r="E180" s="72"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -14609,7 +14965,7 @@
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
+      <c r="E181" s="72"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -14637,7 +14993,7 @@
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
+      <c r="E182" s="72"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -14665,7 +15021,7 @@
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
+      <c r="E183" s="72"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -14693,7 +15049,7 @@
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
+      <c r="E184" s="72"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -14721,7 +15077,7 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
+      <c r="E185" s="72"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -14749,7 +15105,7 @@
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
+      <c r="E186" s="72"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -14777,7 +15133,7 @@
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
+      <c r="E187" s="72"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -14805,7 +15161,7 @@
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="E188" s="72"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -14833,7 +15189,7 @@
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
+      <c r="E189" s="72"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -14861,7 +15217,7 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
+      <c r="E190" s="72"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -14889,7 +15245,7 @@
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
+      <c r="E191" s="72"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -14917,7 +15273,7 @@
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
+      <c r="E192" s="72"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -14945,7 +15301,7 @@
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
+      <c r="E193" s="72"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -14973,7 +15329,7 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+      <c r="E194" s="72"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -15001,7 +15357,7 @@
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
+      <c r="E195" s="72"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -15029,7 +15385,7 @@
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
+      <c r="E196" s="72"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -15057,7 +15413,7 @@
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
+      <c r="E197" s="72"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -15085,7 +15441,7 @@
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
+      <c r="E198" s="72"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -15113,7 +15469,7 @@
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
+      <c r="E199" s="72"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -15141,7 +15497,7 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
+      <c r="E200" s="72"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -15169,7 +15525,7 @@
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
+      <c r="E201" s="72"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -15197,7 +15553,7 @@
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
+      <c r="E202" s="72"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -15225,7 +15581,7 @@
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
+      <c r="E203" s="72"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -15253,7 +15609,7 @@
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
+      <c r="E204" s="72"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -15281,7 +15637,7 @@
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
+      <c r="E205" s="72"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -15309,7 +15665,7 @@
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
+      <c r="E206" s="72"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
@@ -15337,7 +15693,7 @@
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
+      <c r="E207" s="72"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
@@ -15365,7 +15721,7 @@
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
+      <c r="E208" s="72"/>
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
@@ -15393,7 +15749,7 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
+      <c r="E209" s="72"/>
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
@@ -15421,7 +15777,7 @@
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
+      <c r="E210" s="72"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
@@ -15449,7 +15805,7 @@
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
+      <c r="E211" s="72"/>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -15477,7 +15833,7 @@
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
+      <c r="E212" s="72"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -15505,7 +15861,7 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
+      <c r="E213" s="72"/>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -15533,7 +15889,7 @@
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
+      <c r="E214" s="72"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -15561,7 +15917,7 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
+      <c r="E215" s="72"/>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -15589,7 +15945,7 @@
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
+      <c r="E216" s="72"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -15617,7 +15973,7 @@
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
+      <c r="E217" s="72"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -15645,7 +16001,7 @@
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="72"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -15673,7 +16029,7 @@
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
+      <c r="E219" s="72"/>
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
@@ -15697,898 +16053,2402 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-      <c r="Y220" s="1"/>
-      <c r="Z220" s="1"/>
+      <c r="E220" s="73"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="X221" s="1"/>
-      <c r="Y221" s="1"/>
-      <c r="Z221" s="1"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
+      <c r="E221" s="73"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="E222" s="73"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="E223" s="73"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="E224" s="73"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="E225" s="73"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="E226" s="73"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="E227" s="73"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="E228" s="73"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="E229" s="73"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="E230" s="73"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="E231" s="73"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="E232" s="73"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="E233" s="73"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="E234" s="73"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="E235" s="73"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="E236" s="73"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="E237" s="73"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="E238" s="73"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="E239" s="73"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="E240" s="73"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="E241" s="73"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="E242" s="73"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="E243" s="73"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="E244" s="73"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="E245" s="73"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="E246" s="73"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="E247" s="73"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="E248" s="73"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="E249" s="73"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="E250" s="73"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="E251" s="73"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="E252" s="73"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="E253" s="73"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="E254" s="73"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="E255" s="73"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="E256" s="73"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="E257" s="73"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="E258" s="73"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="E259" s="73"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="E260" s="73"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="E261" s="73"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="E262" s="73"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="E263" s="73"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="E264" s="73"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="E265" s="73"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="E266" s="73"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="E267" s="73"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="E268" s="73"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="E269" s="73"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="E270" s="73"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="E271" s="73"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="E272" s="73"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="E273" s="73"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="E274" s="73"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="E275" s="73"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="E276" s="73"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="E277" s="73"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="E278" s="73"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="E279" s="73"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="E280" s="73"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="E281" s="73"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="E282" s="73"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="E283" s="73"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="E284" s="73"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="E285" s="73"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="E286" s="73"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="E287" s="73"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="E288" s="73"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="E289" s="73"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="E290" s="73"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="E291" s="73"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="E292" s="73"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="E293" s="73"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="E294" s="73"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="E295" s="73"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="E296" s="73"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="E297" s="73"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="E298" s="73"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="E299" s="73"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="E300" s="73"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="E301" s="73"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="E302" s="73"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="E303" s="73"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="E304" s="73"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="E305" s="73"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="E306" s="73"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="E307" s="73"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="E308" s="73"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="E309" s="73"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="E310" s="73"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="E311" s="73"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="E312" s="73"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="E313" s="73"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="E314" s="73"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="E315" s="73"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="E316" s="73"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="E317" s="73"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="E318" s="73"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="E319" s="73"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="E320" s="73"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="E321" s="73"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="E322" s="73"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="E323" s="73"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="E324" s="73"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="E325" s="73"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="E326" s="73"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="E327" s="73"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="E328" s="73"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="E329" s="73"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="E330" s="73"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="E331" s="73"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="E332" s="73"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="E333" s="73"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="E334" s="73"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="E335" s="73"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="E336" s="73"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="E337" s="73"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="E338" s="73"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="E339" s="73"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="E340" s="73"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="E341" s="73"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="E342" s="73"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="E343" s="73"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="E344" s="73"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="E345" s="73"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="E346" s="73"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="E347" s="73"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="E348" s="73"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="E349" s="73"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="E350" s="73"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="E351" s="73"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="E352" s="73"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="E353" s="73"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="E354" s="73"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="E355" s="73"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="E356" s="73"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="E357" s="73"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="E358" s="73"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="E359" s="73"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="E360" s="73"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="E361" s="73"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="E362" s="73"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="E363" s="73"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="E364" s="73"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="E365" s="73"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="E366" s="73"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="E367" s="73"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="E368" s="73"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="E369" s="73"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="E370" s="73"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="E371" s="73"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="E372" s="73"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="E373" s="73"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="E374" s="73"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="E375" s="73"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="E376" s="73"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="E377" s="73"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="E378" s="73"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="E379" s="73"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="E380" s="73"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="E381" s="73"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="E382" s="73"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="E383" s="73"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="E384" s="73"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="E385" s="73"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="E386" s="73"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="E387" s="73"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="E388" s="73"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="E389" s="73"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="E390" s="73"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="E391" s="73"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="E392" s="73"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="E393" s="73"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="E394" s="73"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="E395" s="73"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="E396" s="73"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="E397" s="73"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="E398" s="73"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="E399" s="73"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="E400" s="73"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="E401" s="73"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="E402" s="73"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="E403" s="73"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="E404" s="73"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="E405" s="73"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="E406" s="73"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="E407" s="73"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="E408" s="73"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="E409" s="73"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="E410" s="73"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="E411" s="73"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="E412" s="73"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="E413" s="73"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="E414" s="73"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="E415" s="73"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="E416" s="73"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="E417" s="73"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="E418" s="73"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="E419" s="73"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="E420" s="73"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="E421" s="73"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="E422" s="73"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="E423" s="73"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="E424" s="73"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="E425" s="73"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="E426" s="73"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="E427" s="73"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="E428" s="73"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="E429" s="73"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="E430" s="73"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="E431" s="73"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="E432" s="73"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="E433" s="73"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="E434" s="73"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="E435" s="73"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="E436" s="73"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="E437" s="73"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="E438" s="73"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="E439" s="73"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="E440" s="73"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="E441" s="73"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="E442" s="73"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="E443" s="73"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="E444" s="73"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="E445" s="73"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="E446" s="73"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="E447" s="73"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="E448" s="73"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="E449" s="73"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="E450" s="73"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="E451" s="73"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="E452" s="73"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="E453" s="73"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="E454" s="73"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="E455" s="73"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="E456" s="73"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="E457" s="73"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="E458" s="73"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="E459" s="73"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="E460" s="73"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="E461" s="73"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="E462" s="73"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="E463" s="73"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="E464" s="73"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="E465" s="73"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="E466" s="73"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="E467" s="73"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="E468" s="73"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="E469" s="73"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="E470" s="73"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="E471" s="73"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="E472" s="73"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="E473" s="73"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="E474" s="73"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="E475" s="73"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="E476" s="73"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="E477" s="73"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="E478" s="73"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="E479" s="73"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="E480" s="73"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="E481" s="73"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="E482" s="73"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="E483" s="73"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="E484" s="73"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="E485" s="73"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="E486" s="73"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="E487" s="73"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="E488" s="73"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="E489" s="73"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="E490" s="73"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="E491" s="73"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="E492" s="73"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="E493" s="73"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="E494" s="73"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="E495" s="73"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="E496" s="73"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="E497" s="73"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="E498" s="73"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="E499" s="73"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="E500" s="73"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="E501" s="73"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="E502" s="73"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="E503" s="73"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="E504" s="73"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="E505" s="73"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="E506" s="73"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="E507" s="73"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="E508" s="73"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="E509" s="73"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="E510" s="73"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="E511" s="73"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="E512" s="73"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="E513" s="73"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="E514" s="73"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="E515" s="73"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="E516" s="73"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="E517" s="73"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="E518" s="73"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="E519" s="73"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="E520" s="73"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="E521" s="73"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="E522" s="73"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="E523" s="73"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="E524" s="73"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="E525" s="73"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="E526" s="73"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="E527" s="73"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="E528" s="73"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="E529" s="73"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="E530" s="73"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="E531" s="73"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="E532" s="73"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="E533" s="73"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="E534" s="73"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="E535" s="73"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="E536" s="73"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="E537" s="73"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="E538" s="73"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="E539" s="73"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="E540" s="73"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="E541" s="73"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="E542" s="73"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="E543" s="73"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="E544" s="73"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="E545" s="73"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="E546" s="73"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="E547" s="73"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="E548" s="73"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="E549" s="73"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="E550" s="73"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="E551" s="73"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="E552" s="73"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="E553" s="73"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="E554" s="73"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="E555" s="73"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="E556" s="73"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="E557" s="73"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="E558" s="73"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="E559" s="73"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="E560" s="73"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="E561" s="73"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="E562" s="73"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="E563" s="73"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="E564" s="73"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="E565" s="73"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="E566" s="73"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="E567" s="73"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="E568" s="73"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="E569" s="73"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="E570" s="73"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="E571" s="73"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="E572" s="73"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="E573" s="73"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="E574" s="73"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="E575" s="73"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="E576" s="73"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="E577" s="73"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="E578" s="73"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="E579" s="73"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="E580" s="73"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="E581" s="73"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="E582" s="73"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="E583" s="73"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="E584" s="73"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="E585" s="73"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="E586" s="73"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="E587" s="73"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="E588" s="73"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="E589" s="73"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="E590" s="73"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="E591" s="73"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="E592" s="73"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="E593" s="73"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="E594" s="73"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="E595" s="73"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="E596" s="73"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="E597" s="73"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="E598" s="73"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="E599" s="73"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="E600" s="73"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="E601" s="73"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="E602" s="73"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="E603" s="73"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="E604" s="73"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="E605" s="73"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="E606" s="73"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="E607" s="73"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="E608" s="73"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="E609" s="73"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="E610" s="73"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="E611" s="73"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="E612" s="73"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="E613" s="73"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="E614" s="73"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="E615" s="73"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="E616" s="73"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="E617" s="73"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="E618" s="73"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="E619" s="73"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="E620" s="73"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="E621" s="73"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="E622" s="73"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="E623" s="73"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="E624" s="73"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="E625" s="73"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="E626" s="73"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="E627" s="73"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="E628" s="73"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="E629" s="73"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="E630" s="73"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="E631" s="73"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="E632" s="73"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="E633" s="73"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="E634" s="73"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="E635" s="73"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="E636" s="73"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="E637" s="73"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="E638" s="73"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="E639" s="73"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="E640" s="73"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="E641" s="73"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="E642" s="73"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="E643" s="73"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="E644" s="73"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="E645" s="73"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="E646" s="73"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="E647" s="73"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="E648" s="73"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="E649" s="73"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="E650" s="73"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="E651" s="73"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="E652" s="73"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="E653" s="73"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="E654" s="73"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="E655" s="73"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="E656" s="73"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="E657" s="73"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="E658" s="73"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="E659" s="73"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="E660" s="73"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="E661" s="73"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="E662" s="73"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="E663" s="73"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="E664" s="73"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="E665" s="73"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="E666" s="73"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="E667" s="73"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="E668" s="73"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="E669" s="73"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="E670" s="73"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="E671" s="73"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="E672" s="73"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="E673" s="73"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="E674" s="73"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="E675" s="73"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="E676" s="73"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="E677" s="73"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="E678" s="73"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="E679" s="73"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="E680" s="73"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="E681" s="73"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="E682" s="73"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="E683" s="73"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="E684" s="73"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="E685" s="73"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="E686" s="73"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="E687" s="73"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="E688" s="73"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="E689" s="73"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="E690" s="73"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="E691" s="73"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="E692" s="73"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="E693" s="73"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="E694" s="73"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="E695" s="73"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="E696" s="73"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="E697" s="73"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="E698" s="73"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="E699" s="73"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="E700" s="73"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="E701" s="73"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="E702" s="73"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="E703" s="73"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="E704" s="73"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="E705" s="73"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="E706" s="73"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="E707" s="73"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="E708" s="73"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="E709" s="73"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="E710" s="73"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="E711" s="73"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="E712" s="73"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="E713" s="73"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="E714" s="73"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="E715" s="73"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="E716" s="73"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="E717" s="73"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="E718" s="73"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="E719" s="73"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="E720" s="73"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="E721" s="73"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="E722" s="73"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="E723" s="73"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="E724" s="73"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="E725" s="73"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="E726" s="73"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="E727" s="73"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="E728" s="73"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="E729" s="73"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="E730" s="73"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="E731" s="73"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="E732" s="73"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="E733" s="73"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="E734" s="73"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="E735" s="73"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="E736" s="73"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="E737" s="73"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="E738" s="73"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="E739" s="73"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="E740" s="73"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="E741" s="73"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="E742" s="73"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="E743" s="73"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="E744" s="73"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="E745" s="73"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="E746" s="73"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="E747" s="73"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="E748" s="73"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="E749" s="73"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="E750" s="73"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="E751" s="73"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="E752" s="73"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="E753" s="73"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="E754" s="73"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="E755" s="73"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="E756" s="73"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="E757" s="73"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="E758" s="73"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="E759" s="73"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="E760" s="73"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="E761" s="73"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="E762" s="73"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="E763" s="73"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="E764" s="73"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="E765" s="73"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="E766" s="73"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="E767" s="73"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="E768" s="73"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="E769" s="73"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="E770" s="73"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="E771" s="73"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="E772" s="73"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="E773" s="73"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="E774" s="73"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="E775" s="73"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="E776" s="73"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="E777" s="73"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="E778" s="73"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="E779" s="73"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="E780" s="73"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="E781" s="73"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="E782" s="73"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="E783" s="73"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="E784" s="73"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="E785" s="73"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="E786" s="73"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="E787" s="73"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="E788" s="73"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="E789" s="73"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="E790" s="73"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="E791" s="73"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="E792" s="73"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="E793" s="73"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="E794" s="73"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="E795" s="73"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="E796" s="73"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="E797" s="73"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="E798" s="73"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="E799" s="73"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="E800" s="73"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="E801" s="73"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="E802" s="73"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="E803" s="73"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="E804" s="73"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="E805" s="73"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="E806" s="73"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="E807" s="73"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="E808" s="73"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="E809" s="73"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="E810" s="73"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="E811" s="73"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="E812" s="73"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="E813" s="73"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="E814" s="73"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="E815" s="73"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="E816" s="73"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="E817" s="73"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="E818" s="73"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="E819" s="73"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="E820" s="73"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="E821" s="73"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="E822" s="73"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="E823" s="73"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="E824" s="73"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="E825" s="73"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="E826" s="73"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="E827" s="73"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="E828" s="73"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="E829" s="73"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="E830" s="73"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="E831" s="73"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="E832" s="73"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="E833" s="73"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="E834" s="73"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="E835" s="73"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="E836" s="73"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="E837" s="73"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="E838" s="73"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="E839" s="73"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="E840" s="73"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="E841" s="73"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="E842" s="73"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="E843" s="73"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="E844" s="73"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="E845" s="73"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="E846" s="73"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="E847" s="73"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="E848" s="73"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="E849" s="73"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="E850" s="73"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="E851" s="73"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="E852" s="73"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="E853" s="73"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="E854" s="73"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="E855" s="73"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="E856" s="73"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="E857" s="73"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="E858" s="73"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="E859" s="73"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="E860" s="73"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="E861" s="73"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="E862" s="73"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="E863" s="73"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="E864" s="73"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="E865" s="73"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="E866" s="73"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="E867" s="73"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="E868" s="73"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="E869" s="73"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="E870" s="73"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="E871" s="73"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="E872" s="73"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="E873" s="73"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="E874" s="73"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="E875" s="73"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="E876" s="73"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="E877" s="73"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="E878" s="73"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="E879" s="73"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="E880" s="73"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="E881" s="73"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="E882" s="73"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="E883" s="73"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="E884" s="73"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="E885" s="73"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="E886" s="73"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="E887" s="73"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="E888" s="73"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="E889" s="73"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="E890" s="73"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="E891" s="73"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="E892" s="73"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="E893" s="73"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="E894" s="73"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="E895" s="73"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="E896" s="73"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="E897" s="73"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="E898" s="73"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="E899" s="73"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="E900" s="73"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="E901" s="73"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="E902" s="73"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="E903" s="73"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="E904" s="73"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="E905" s="73"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="E906" s="73"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="E907" s="73"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="E908" s="73"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="E909" s="73"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="E910" s="73"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="E911" s="73"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="E912" s="73"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="E913" s="73"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="E914" s="73"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="E915" s="73"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="E916" s="73"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="E917" s="73"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="E918" s="73"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="E919" s="73"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="E920" s="73"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="E921" s="73"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="E922" s="73"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="E923" s="73"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="E924" s="73"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="E925" s="73"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="E926" s="73"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="E927" s="73"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="E928" s="73"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="E929" s="73"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="E930" s="73"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="E931" s="73"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="E932" s="73"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="E933" s="73"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="E934" s="73"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="E935" s="73"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="E936" s="73"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="E937" s="73"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="E938" s="73"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="E939" s="73"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="E940" s="73"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="E941" s="73"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="E942" s="73"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="E943" s="73"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="E944" s="73"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="E945" s="73"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="E946" s="73"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="E947" s="73"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="E948" s="73"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="E949" s="73"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="E950" s="73"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="E951" s="73"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="E952" s="73"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="E953" s="73"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="E954" s="73"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="E955" s="73"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="E956" s="73"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="E957" s="73"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="E958" s="73"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="E959" s="73"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="E960" s="73"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="E961" s="73"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="E962" s="73"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="E963" s="73"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="E964" s="73"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="E965" s="73"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="E966" s="73"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="E967" s="73"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="E968" s="73"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="E969" s="73"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="E970" s="73"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="E971" s="73"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="E972" s="73"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="E973" s="73"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="E974" s="73"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="E975" s="73"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="E976" s="73"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="E977" s="73"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="E978" s="73"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="E979" s="73"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="E980" s="73"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="E981" s="73"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="E982" s="73"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="E983" s="73"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="E984" s="73"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="E985" s="73"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="E986" s="73"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="E987" s="73"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="E988" s="73"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="E989" s="73"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="E990" s="73"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="E991" s="73"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="E992" s="73"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="E993" s="73"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="E994" s="73"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="E995" s="73"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="E996" s="73"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="E997" s="73"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="E998" s="73"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="E999" s="73"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$1"/>
-  <conditionalFormatting sqref="H2:H211">
+  <autoFilter ref="$A$1:$K$71"/>
+  <conditionalFormatting sqref="H2:H209">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H211">
+  <conditionalFormatting sqref="H2:H209">
     <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H211">
+  <conditionalFormatting sqref="H2:H209">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9">
+  <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9">
+  <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Testing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9">
+  <conditionalFormatting sqref="H3:H7 H9">
     <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1001">
+  <conditionalFormatting sqref="C1:C999">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"In-progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1001">
+  <conditionalFormatting sqref="C1:C999">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1001">
+  <conditionalFormatting sqref="C1:C999">
     <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1001">
+  <conditionalFormatting sqref="H1:H999">
     <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C211">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C209">
       <formula1>"Open,In-progress,Cancelled,Completed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H211">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H209">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16621,21 +18481,21 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="70"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="74"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -16653,22 +18513,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="75">
+      <c r="A2" s="74"/>
+      <c r="B2" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="79">
         <f>COUNTIF('Traceability Matrix'!B:B,"&gt; ")-1</f>
-        <v>72</v>
-      </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -16686,22 +18546,22 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="75">
+      <c r="A3" s="74"/>
+      <c r="B3" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="79">
         <f>COUNTIF('Traceability Matrix'!E:E,"&gt; ")-1-COUNTIF('Traceability Matrix'!E:E,"tbd")-COUNTIF('Traceability Matrix'!E:E,"to be done")--COUNTIF('Traceability Matrix'!E:E,"on hold")-COUNTIF('Traceability Matrix'!E:E,"hold")-COUNTIF('Traceability Matrix'!E:E,".")--COUNTIF('Traceability Matrix'!E:E,"-")-COUNTIF('Traceability Matrix'!E:E,"ok")--COUNTIF('Traceability Matrix'!E:E,"yes")--COUNTIF('Traceability Matrix'!E:E,"no")</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+        <v>46</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -16719,25 +18579,25 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="75">
+      <c r="A4" s="74"/>
+      <c r="B4" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="79">
         <f>COUNTIF('Traceability Matrix'!F:F,"&gt; ")-1-COUNTIF('Traceability Matrix'!F:F,"tbd")-COUNTIF('Traceability Matrix'!F:F,"to be done")--COUNTIF('Traceability Matrix'!F:F,"on hold")-COUNTIF('Traceability Matrix'!F:F,"hold")-COUNTIF('Traceability Matrix'!F:F,".")--COUNTIF('Traceability Matrix'!F:F,"-")-COUNTIF('Traceability Matrix'!F:F,"ok")--COUNTIF('Traceability Matrix'!F:F,"yes")--COUNTIF('Traceability Matrix'!F:F,"no")</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="77" t="str">
+        <v>14</v>
+      </c>
+      <c r="D4" s="81" t="str">
         <f>IF(C4&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -16755,22 +18615,22 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="75">
+      <c r="A5" s="74"/>
+      <c r="B5" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="79">
         <f>COUNTIF('Traceability Matrix'!G:G,"&gt; ")-1-COUNTIF('Traceability Matrix'!G:G,"tbd")-COUNTIF('Traceability Matrix'!G:G,"to be done")--COUNTIF('Traceability Matrix'!G:G,"on hold")-COUNTIF('Traceability Matrix'!G:G,"hold")-COUNTIF('Traceability Matrix'!G:G,".")--COUNTIF('Traceability Matrix'!G:G,"-")-COUNTIF('Traceability Matrix'!G:G,"ok")--COUNTIF('Traceability Matrix'!G:G,"yes")--COUNTIF('Traceability Matrix'!G:G,"no")</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -16788,25 +18648,25 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="A6" s="74"/>
+      <c r="B6" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="83">
         <f>COUNTIF('Traceability Matrix'!H:H,"Yes")</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="77" t="str">
+        <v>34</v>
+      </c>
+      <c r="D6" s="81" t="str">
         <f t="shared" ref="D6:D7" si="1">IF(C6&gt;C$3,"Fill design details!","")</f>
         <v/>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -16824,25 +18684,25 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="80">
+      <c r="A7" s="74"/>
+      <c r="B7" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="84">
         <f>COUNTIF('Traceability Matrix'!I:I,"&gt; ")-1-COUNTIF('Traceability Matrix'!I:I,"tbd")-COUNTIF('Traceability Matrix'!I:I,"to be done")--COUNTIF('Traceability Matrix'!I:I,"on hold")-COUNTIF('Traceability Matrix'!I:I,"hold")-COUNTIF('Traceability Matrix'!I:I,".")--COUNTIF('Traceability Matrix'!I:I,"-")-COUNTIF('Traceability Matrix'!I:I,"ok")--COUNTIF('Traceability Matrix'!I:I,"yes")--COUNTIF('Traceability Matrix'!I:I,"no")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="77" t="str">
+      <c r="D7" s="81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -16860,22 +18720,22 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="80">
+      <c r="A8" s="74"/>
+      <c r="B8" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="84">
         <f>COUNTIF('Traceability Matrix'!J:J,"&gt; ")-1-COUNTIF('Traceability Matrix'!J:J,"tbd")-COUNTIF('Traceability Matrix'!J:J,"to be done")--COUNTIF('Traceability Matrix'!J:J,"on hold")-COUNTIF('Traceability Matrix'!J:J,"hold")-COUNTIF('Traceability Matrix'!J:J,".")--COUNTIF('Traceability Matrix'!J:J,"-")-COUNTIF('Traceability Matrix'!J:J,"ok")--COUNTIF('Traceability Matrix'!J:J,"yes")--COUNTIF('Traceability Matrix'!J:J,"no")</f>
         <v>0</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -16893,17 +18753,17 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -16921,22 +18781,22 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="87">
         <f>COUNTIF('Traceability Matrix'!C:C,B10)</f>
-        <v>72</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -16954,22 +18814,22 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="70"/>
-      <c r="B11" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="A11" s="74"/>
+      <c r="B11" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="87">
         <f>COUNTIF('Traceability Matrix'!C:C,B11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -16987,22 +18847,22 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="A12" s="74"/>
+      <c r="B12" s="88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="87">
         <f>COUNTIF('Traceability Matrix'!C:C,B12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -17020,22 +18880,22 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="A13" s="74"/>
+      <c r="B13" s="88" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="87">
         <f>COUNTIF('Traceability Matrix'!C:C,B13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -17053,17 +18913,17 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -17081,17 +18941,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -17109,17 +18969,17 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -17137,17 +18997,17 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -17165,17 +19025,17 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -17193,17 +19053,17 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="70"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -17221,17 +19081,17 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -17249,17 +19109,17 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
